--- a/biology/Histoire de la zoologie et de la botanique/Griseb/Griseb..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Griseb/Griseb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Heinrich Rudolf Grisebach est un botaniste allemand, né le 17 avril 1814 à Hanovre et mort le 9 mai 1879 à Göttingen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il fait des études de médecine et de botanique à l'université de Göttingen et à Berlin de 1832 à 1836, année où il reçoit son doctorat. Il devient professeur-associé à l'université de Göttingen en 1841 et professeur titulaire en 1847. Il fait des voyages scientifiques dans les Alpes en 1833, en Turquie en 1839, dans les Pyrénées en 1850, en Norvège en 1842. Il dirige le jardin botanique de Göttingen en 1875.
 Il est notamment l’auteur de Genera et Species Gentianearum (1839), Flora of the British West Indian islands (1859-1864), Die Vegetation der Erde nach Ihrer Klimatischen Anordnung (deux volumes, 1872) et de nombreuses autres publications sur les plantes de l’Asie et de l’Amérique du Sud. Il est élu en 1844 à l'Académie allemande des sciences Leopoldina. Le botaniste américain Asa Gray lui envoie les plantes récoltées à Cuba par Charles Wright afin de les décrire, il rédigera ainsi 3 ouvrages de référence à partir de ce matériel.
@@ -546,11 +560,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En botanique, deux genres lui ont été dédiés: Grisebachia (maintenant non valide) et Grisebachianthus (Asteraceae) ainsi que plus de 200 espèces.
-Espèces décrites
-Eryngium agavifolium Griseb., 1874</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En botanique, deux genres lui ont été dédiés: Grisebachia (maintenant non valide) et Grisebachianthus (Asteraceae) ainsi que plus de 200 espèces.</t>
         </is>
       </c>
     </row>
@@ -575,10 +589,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eryngium agavifolium Griseb., 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Griseb.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Griseb.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1839: Genera et Species Gentianearum, Verison numérique sur Google Books.
 1859-1864 : Flora of the British West Indian islands, 7 volumes, London, L. Reeve. Version numérique sur Botanicus.
